--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฅ(1).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฅ(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2567_ROYIN\ROYIN Dictionary dataset\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5415F-4234-45E8-BC8B-EF1F90B219D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C3F5415F-4234-45E8-BC8B-EF1F90B219D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E85720C7-1451-4743-810E-2D4309764041}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="2220" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,31 +34,34 @@
     <t>ฅ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๕ เรียกว่า ฅอ คน เป็นอักษรต่ำ ปัจจุบันเลิกใช้แล้ว.</t>
-  </si>
-  <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๕ เรียกว่า ฅอ คน เป็นอักษรต่ำ ปัจจุบันเลิกใช้แล้ว.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,15 +107,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,40 +420,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="44.59765625" customWidth="1"/>
-    <col min="4" max="4" width="57.69921875" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
